--- a/Tabela/Copacabana/Copacabana-7.xlsx
+++ b/Tabela/Copacabana/Copacabana-7.xlsx
@@ -14,342 +14,348 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="114">
+  <si>
+    <t>Telefone</t>
+  </si>
   <si>
     <t>Mensagem</t>
   </si>
   <si>
-    <t>Uma casa exclusiva, cheia de charme no alto Jardim Botânico. Com 4 suítes, jardim, piscina, sauna, espaço gourmet e 02 dependências compl...</t>
-  </si>
-  <si>
     <t>super destaque</t>
   </si>
   <si>
+    <t>R$ 450.000</t>
+  </si>
+  <si>
+    <t>R$ 600.000</t>
+  </si>
+  <si>
     <t>destaque</t>
   </si>
   <si>
-    <t>R$ 480.000</t>
-  </si>
-  <si>
-    <t>R$ 410.000</t>
-  </si>
-  <si>
-    <t>R$ 420.000</t>
-  </si>
-  <si>
-    <t>R$ 270.000</t>
-  </si>
-  <si>
-    <t>R$ 530.000</t>
-  </si>
-  <si>
-    <t>R$ 500.000</t>
-  </si>
-  <si>
-    <t>R$ 1.490.000</t>
-  </si>
-  <si>
-    <t>R$ 1.390.000</t>
-  </si>
-  <si>
-    <t>R$ 370.000</t>
-  </si>
-  <si>
-    <t>R$ 770.000</t>
-  </si>
-  <si>
-    <t>R$ 600.000</t>
+    <t>R$ 610.000</t>
+  </si>
+  <si>
+    <t>R$ 460.000</t>
+  </si>
+  <si>
+    <t>R$ 630.000</t>
+  </si>
+  <si>
+    <t>R$ 1.170.000</t>
+  </si>
+  <si>
+    <t>R$ 890.000</t>
+  </si>
+  <si>
+    <t>R$ 840.000</t>
+  </si>
+  <si>
+    <t>R$ 620.000</t>
+  </si>
+  <si>
+    <t>R$ 312.000</t>
+  </si>
+  <si>
+    <t>R$ 325.000</t>
+  </si>
+  <si>
+    <t>em construção</t>
+  </si>
+  <si>
+    <t>R$ 2.500.000</t>
+  </si>
+  <si>
+    <t>R$ 1.900.000</t>
+  </si>
+  <si>
+    <t>R$ 2.050.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 585 IPTU R$ 750</t>
+  </si>
+  <si>
+    <t>condomínioR$ 800</t>
   </si>
   <si>
     <t>R$ 900.000</t>
   </si>
   <si>
-    <t>R$ 490.000</t>
+    <t>condomínioR$ 780 IPTU R$ 1.190</t>
+  </si>
+  <si>
+    <t>condomínioR$ 850 IPTU R$ 175</t>
+  </si>
+  <si>
+    <t>condomínioR$ 690 IPTU R$ 58</t>
+  </si>
+  <si>
+    <t>condomínioR$ 850 IPTU R$ 2.000</t>
+  </si>
+  <si>
+    <t>R$ 1.180.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 800 IPTU R$ 2.000</t>
+  </si>
+  <si>
+    <t>R$ 880.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.100</t>
+  </si>
+  <si>
+    <t>condomínioR$ 700 IPTU R$ 900</t>
+  </si>
+  <si>
+    <t>R$ 1.580.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 578 IPTU R$ 253</t>
+  </si>
+  <si>
+    <t>R$ 1.650.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 600 IPTU R$ 183</t>
+  </si>
+  <si>
+    <t>R$ 360.000</t>
+  </si>
+  <si>
+    <t>R$ 1.626.835</t>
+  </si>
+  <si>
+    <t>condomínioR$ 2.150 IPTU R$ 6.455</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.400 IPTU R$ 928</t>
+  </si>
+  <si>
+    <t>condomínioR$ 2.500 IPTU R$ 741</t>
+  </si>
+  <si>
+    <t>Amplo quarto e sala , andar alto, posto 5 de copacabana</t>
+  </si>
+  <si>
+    <t>LEG IMOB VENDE: Apartamento maravilhoso na principal localidade de Copacabana, à uma quadra da praia, com forte comércio e próximo ao metrô. Imóvel de fundo, silencioso, com 50m²,...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 850 IPTU R$ 207</t>
+  </si>
+  <si>
+    <t>Cód: GPAP20019. Apartamento dois quartos todo reformado em rua transversal do posto 5 de copacabana, rua tranquila e silenciosa perto do metrô cantagalo e todo o comércio da região...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 620 IPTU R$ 120</t>
+  </si>
+  <si>
+    <t>Apartamento à venda em Copacabana - Posto 4. Excelente Conjugadão, muito bem dividido, frente, arejado, claro, com pequeno hall de entrada, cozinha cabendo fogão e geladeira, quart...</t>
+  </si>
+  <si>
+    <t>Ata imóveis vende Apartamento residencial para Venda em Copacabana, 2 dormitórios sendo 2 suítes, 1 sala, 2 banheiros, reformado, próximo a farto comércio.entrar e morar</t>
+  </si>
+  <si>
+    <t>Cód: CPAP20350. Horta vende - Posto 8 Ipanema. Apartamento composto de sala em 2 ambientes com vista livre para rua com jardim de inverno, 2 quartos com armários planejados sendo u...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.666 IPTU R$ 2.451</t>
+  </si>
+  <si>
+    <t>Posto 6, 80m2, andar alto, sol da manhã -</t>
+  </si>
+  <si>
+    <t>condomínioR$ 845 IPTU R$ 2.730</t>
+  </si>
+  <si>
+    <t>Privilégio imóveis vende: Excelente apartamento REFORMADO e PORTEIRA FECHADA.</t>
+  </si>
+  <si>
+    <t>Cód: CPAP10765. Horta vende - Apartamento em Copacabana. 2 quartos sendo 1 suite, piso porcelanato, iluminação indireta, teto de gesso rebaixado, finamente reformado, blindex nos b...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.275 IPTU R$ 468</t>
+  </si>
+  <si>
+    <t>Privilégio Imóveis Vende: Excelente sala comercial no melhor ponto de Copacabana de frente, com vaga de garagem na Escritura, portaria de 07h às 22h., sábados de 07h às 15h, próxim...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 2.350 IPTU R$ 4.800</t>
+  </si>
+  <si>
+    <t>Cód: CPSL00076. Horta vende - Sala comercial, de fundos com vista livre, 38 m², próximo a Praça Serzedelo Correia. Prédio bem administrado com segurança, câmera de vigilância e por...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 480 IPTU R$ 610</t>
+  </si>
+  <si>
+    <t>Ser ON é aproveitar o melhor da sua casa, família e amigos. É viver em 1.400m² de lazer com modernidade, personalidade e estilo. É encontrar cores vibrantes, linhas retas e limpas...</t>
+  </si>
+  <si>
+    <t>Rua Cobiçada!!! Posto 4. Excelente localização, prédio maravilhoso entrada pela Av. Atlantica e suplementar por Domingos Ferreira. Apartamento todo virado com frente para rua Domin...</t>
+  </si>
+  <si>
+    <t>Apartamento de 01 por andar. 03 salas amplas, jardim de inverno, 03 quartos com armários (todos com varanda), 02 banheiros sociais, cozinha com armários e 02 dependências completa...</t>
+  </si>
+  <si>
+    <t>Apartamento em Copacabana na quadra da praia da rua Paula Freitas com 215 m², contendo hall, ampla sala de estar e de jantar, bar, lavabo. Na parte íntima do imóvel 3 quartos, send...</t>
+  </si>
+  <si>
+    <t>Rua Djalma Ulrich, Copacabana</t>
   </si>
   <si>
     <t>mais</t>
   </si>
   <si>
-    <t>R$ 1.650.000</t>
-  </si>
-  <si>
-    <t>R$ 317.000</t>
-  </si>
-  <si>
-    <t>R$ 1.150.000</t>
-  </si>
-  <si>
-    <t>R$ 2.650.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 700 IPTU R$ 300</t>
-  </si>
-  <si>
-    <t>condomínio R$ 480 IPTU R$ 89</t>
-  </si>
-  <si>
-    <t>IPTU R$ 11.054</t>
-  </si>
-  <si>
-    <t>condomínio R$ 795 IPTU R$ 228</t>
-  </si>
-  <si>
-    <t>condomínio R$ 850 IPTU R$ 900</t>
-  </si>
-  <si>
-    <t>condomínio R$ 500 IPTU R$ 100</t>
-  </si>
-  <si>
-    <t>R$ 990.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 750 IPTU R$ 260</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.262 IPTU R$ 4.415</t>
-  </si>
-  <si>
-    <t>R$ 700.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 550 IPTU R$ 86</t>
-  </si>
-  <si>
-    <t>R$ 690.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 930 IPTU R$ 200</t>
-  </si>
-  <si>
-    <t>condomínio R$ 600 IPTU R$ 670</t>
-  </si>
-  <si>
-    <t>condomínio R$ 772 IPTU R$ 228</t>
-  </si>
-  <si>
-    <t>condomínio R$ 600 IPTU R$ 895</t>
-  </si>
-  <si>
-    <t>Rua Peri, Jardim Botânico</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.076 IPTU R$ 206</t>
-  </si>
-  <si>
-    <t>condomínio R$ 410 IPTU R$ 397</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.500 IPTU R$ 427</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.800 IPTU R$ 6.800</t>
-  </si>
-  <si>
-    <t>MARAVILHOSO SALA QUARTO TODO REFORMADO! Apartamento amplo, claro, arejado e silencioso, quarto amplo com iluminação natural, cozinha com uma pequena área de serviço banheiro com bo...</t>
-  </si>
-  <si>
-    <t>MARAVILHOSO SALA QUARTO EM COPACABANA!! quarto amplo e bem arejado, com iluminação natural. Sala bem ampla, clara e arejada, cozinha com espaço para máquina de lavar e geladeira e...</t>
-  </si>
-  <si>
-    <t>Cód: CPLJ00025. R.SoareS PASSA PONTO COMERCIAL, COPACABANA, METRÔ CANTAGALO, FRENTE DE RUA, TOTALMENTE MONTADO EM RESTAURANTE, COM TODA O MOBILIÁRIO, COZINHA INDUSTRIAL, BANCADA CO...</t>
-  </si>
-  <si>
-    <t>Sala comercial, excelente localização na Rua Constante Ramos, coração de Copacabana, andar alto, muito clara, prédio com boa apresentação e manutenção, 27m² no IPTU, precisa de mod...</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.100 IPTU R$ 150</t>
-  </si>
-  <si>
-    <t>excelente localização, andar alto, pronto para morar, sala, sauna, quarto, cozinha, banheiro grande.</t>
-  </si>
-  <si>
-    <t>MARAVILHOSO APARTAMENTO CONJUGADO EM COPACABANA !!! Dividido em quarto e sala, apartamento bem arejado e com bastante iluminação natural, quarto espaçoso, banheiro com box blindex,...</t>
-  </si>
-  <si>
-    <t>condomínio R$ 848 IPTU R$ 3.235</t>
-  </si>
-  <si>
-    <t>Apartamento 2 salas em vários ambientes, 2 suítes (repleta de armários), lavabo, cozinha americana, lavanderia, dependências de empregada, lindamente decorado, reforma geral recent...</t>
-  </si>
-  <si>
-    <t>Cód: GAAP30765. Excelente Apartamento todo reformado com vista para o mar, composto de Sala em 3 ambiente com varanda, 3 quartos sendo uma suíte com varanda e janela anti ruído, ba...</t>
-  </si>
-  <si>
-    <t>condomínio R$ 870 IPTU R$ 231</t>
-  </si>
-  <si>
-    <t>Excelente apartamento pronto pronto morar em Copacabana.</t>
-  </si>
-  <si>
-    <t>condomínio R$ 800 IPTU R$ 1.777</t>
-  </si>
-  <si>
-    <t>MARAVILHOSO APARTAMENTO COM DOIS QUARTOS EM COPACABANA!!! Apartamento composto por sala em dois ambientes amplos, claros e arejados com iluminação natural, dois quartos, sendo um s...</t>
-  </si>
-  <si>
-    <t>Excelente sala quarto reformado na avenida Nossa Senhora de Copacabana 1100.</t>
-  </si>
-  <si>
-    <t>MARAVILHOSO DOIS QUARTOS EM RUA NOBRE DE COPACABANA!!!! Apartamento composto por maravilhosa sala ampla e com muita luz natural, quartos amplos e bem arejados, cozinha com armários...</t>
-  </si>
-  <si>
-    <t>Lindo apartamento totalmente reformado em ótima localização de Copacabana.</t>
-  </si>
-  <si>
-    <t>508 - 610 m²</t>
-  </si>
-  <si>
-    <t>(Código: 38404, Rua Conselheiro Lafaiete) - Rua valorizada no Posto 6, próximo ao comércio de Ipanema e da praia. Edifício com portaria 24h. Rua arborizada. Apartamento claro e are...</t>
-  </si>
-  <si>
-    <t>Lindo conjugado com piso em tábua corrida, armário closet e cozinha americana, área de serviço com piso em cerâmica, tanque e varal, banheiro com piso e paredes em cerâmica e box b...</t>
-  </si>
-  <si>
-    <t>Oitavo Imóveis vende apartamento em Copacabana oportunidade única altura do posto 4 .</t>
-  </si>
-  <si>
-    <t>Espetacular apartamento na Av. Atlântica, de frente para rua Domingos Ferreira. Prédio com entrada pelas 2 ruas. Imóvel com 200m², planta incrível com 3 amplas suítes, repleto de m...</t>
-  </si>
-  <si>
-    <t>Andar alto, Frente e fundos, Claro e bem arejado. Sol da manhã nos fundos ( quarto e área serviços) e Sol passante dos demais cômodos. Originalmente 3 quartos sendo um quarto rever...</t>
-  </si>
-  <si>
-    <t>Copacabana! Perto do metrô Siqueira Campos! Espaçoso apartamento com sala grande, uma suíte, dois bons quartos, confortável banheiro social. Cozinha e área amplos. Silencioso, fren...</t>
-  </si>
-  <si>
-    <t>Sweet Home | Copacabana | Rua Figueiredo Magalhães | Vendo apartamento com 81 m² sendo 02 quartos com dependência completa, sala com 02 ambientes, cozinha, área de serviços, andar...</t>
-  </si>
-  <si>
-    <t>Sala quarto em ótima localização, andar alto, silencioso, claro, arejado e portaria 24h.</t>
-  </si>
-  <si>
-    <t>Privilégio Imóveis Vende: Excelente apartamento 2 quartos em Copacabana junto a farto comércio e Metrô, composto de salão, dois quartos, dependência convertida para terceiro quarto...</t>
-  </si>
-  <si>
-    <t>Quarto amplo, sala para dois ambientes com cozinha americana integrada.</t>
-  </si>
-  <si>
-    <t>Sala ampla, quarto grande com armário, cozinha, área de serviço, banheiro com box blindex, andar alto...</t>
+    <t>Privilégio Imóveis vende: Excelente apartamento reformado de dois quartos sendo um suíte, sala ampla, banheiros com blindex, apartamento claro e arejado, com área de serviço e depe...</t>
+  </si>
+  <si>
+    <t>Cód: CPAP10509. Horta vende - Vazio! Excelente apartamento em localização privilegiada, andar alto com vista para o mar e para as montanhas. Sol da manhã, claro, ventilado. Hall de...</t>
+  </si>
+  <si>
+    <t>Fale co...</t>
+  </si>
+  <si>
+    <t>Melhor ponto da Barata Ribeiro. Próximo à Hotéis, sem comércio em baixo, excelente apartamento em ótimo estado, reformado com bom gosto, alto, claro e arejado, completo com armário...</t>
+  </si>
+  <si>
+    <t>Salão amplo em 2 ambientes, 2 quartos, suite com hydro, ampla copa-cozinha, area de serviço com lavanderia, vaga em escritura, ar cond...</t>
+  </si>
+  <si>
+    <t>Cód: JBAP21289. Copacabana. Maravilhosa Constante Ramos. Posto 4. Excelente Localização. Próximo Metrô Cantagalo, Praia, farto comércio e transportes. Edifício com câmeras seguranç...</t>
+  </si>
+  <si>
+    <t>O imóvel possui uma sala ampla, 2 quartos, sendo um suíte, banheiro social e de serviço. Dependên...</t>
+  </si>
+  <si>
+    <t>Loft: Apto Lagoa | 2 Quartos | 115 m² | Cond: R$1275.14 | 1Vaga</t>
+  </si>
+  <si>
+    <t>Excelente oportunidade de morar na segunda quadra da praia de Copacabana, em um apartamento totalmente reformado, com acabamentos impecáveis.</t>
+  </si>
+  <si>
+    <t>Cód: CPAP10723. Apartamento em Copacabana: Conjugadão bem conservado, cozinha, banheiro, vista livre. uma quadra da praia.</t>
+  </si>
+  <si>
+    <t>50 m²</t>
+  </si>
+  <si>
+    <t>Avenida Nossa Senhora de Copacabana, Copacabana</t>
+  </si>
+  <si>
+    <t>Copacabana, Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Rua Piragibe Frota Aguiar, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Siqueira Campos, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Barata Ribeiro, Copacabana</t>
+  </si>
+  <si>
+    <t>1 por andar, indevassável, pé direi...</t>
+  </si>
+  <si>
+    <t>-Rev.21Out</t>
+  </si>
+  <si>
+    <t>Rua Voluntários da Pátria, Botafogo</t>
+  </si>
+  <si>
+    <t>Rua Raimundo Correia, Copacabana</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>67 m²</t>
+  </si>
+  <si>
+    <t>Rua Constante Ramos, Copacabana</t>
+  </si>
+  <si>
+    <t>28 m²</t>
+  </si>
+  <si>
+    <t>90 m²</t>
+  </si>
+  <si>
+    <t>63 m²</t>
+  </si>
+  <si>
+    <t>Clique em "Contatar Anunciante", e receba o link por whatsapp para agendar sua visita totalmente online no no...</t>
+  </si>
+  <si>
+    <t>29 m²</t>
+  </si>
+  <si>
+    <t>38 m²</t>
+  </si>
+  <si>
+    <t>88 - 250 m²</t>
+  </si>
+  <si>
+    <t>200 m²</t>
+  </si>
+  <si>
+    <t>300 m²</t>
+  </si>
+  <si>
+    <t>215 m²</t>
+  </si>
+  <si>
+    <t>80 m²</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>55 m²</t>
+  </si>
+  <si>
+    <t>93 m²</t>
+  </si>
+  <si>
+    <t>126 m²</t>
+  </si>
+  <si>
+    <t>70 m²</t>
+  </si>
+  <si>
+    <t>84 m²</t>
+  </si>
+  <si>
+    <t>82 m²</t>
+  </si>
+  <si>
+    <t>Rua Xavier da Silveira, Copacabana</t>
+  </si>
+  <si>
+    <t>2 - 4</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>Com excelente planta é composto por sala ampla com varanda fechada, três quartos de excele...</t>
-  </si>
-  <si>
-    <t>Rua Leopoldo Miguez, Copacabana</t>
-  </si>
-  <si>
-    <t>Avenida Nossa Senhora de Copacabana, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Xavier da Silveira, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Constante Ramos, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Siqueira Campos, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Conselheiro Lafaiete, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Figueiredo Magalhães, Copacabana</t>
-  </si>
-  <si>
-    <t>Agende sua visita!!</t>
-  </si>
-  <si>
-    <t>Rua Pompeu Loureiro, Copacabana</t>
-  </si>
-  <si>
-    <t>Banheiro grande, com vent...</t>
-  </si>
-  <si>
-    <t>Rua Santa Clara, Copacabana</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Rua Barata Ribeiro, Copacabana</t>
-  </si>
-  <si>
-    <t>Avenida Atlântica, Copacabana</t>
-  </si>
-  <si>
-    <t>40 m²</t>
-  </si>
-  <si>
-    <t>130 m²</t>
-  </si>
-  <si>
-    <t>27 m²</t>
-  </si>
-  <si>
-    <t>Rua Conrado Niemeyer, Copacabana</t>
-  </si>
-  <si>
-    <t>45 m²</t>
-  </si>
-  <si>
-    <t>127 m²</t>
-  </si>
-  <si>
-    <t>144 m²</t>
-  </si>
-  <si>
-    <t>Lar...</t>
-  </si>
-  <si>
-    <t>Rua Ronald de Carvalho, Copacabana</t>
-  </si>
-  <si>
-    <t>75 m²</t>
-  </si>
-  <si>
-    <t>85 m²</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>116 m²</t>
-  </si>
-  <si>
-    <t>32 m²</t>
-  </si>
-  <si>
-    <t>200 m²</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>90 m²</t>
-  </si>
-  <si>
-    <t>136 m²</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>81 m²</t>
-  </si>
-  <si>
-    <t>135 m²</t>
-  </si>
-  <si>
-    <t>55 m²</t>
-  </si>
-  <si>
-    <t>35 m²</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>Avenida Henrique Dodsworth, Copacabana</t>
+  </si>
+  <si>
+    <t>110 m²</t>
+  </si>
+  <si>
+    <t>30 m²</t>
+  </si>
+  <si>
+    <t>1 - 2</t>
+  </si>
+  <si>
+    <t>115 m²</t>
   </si>
 </sst>
 </file>
@@ -707,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -750,763 +756,796 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>93</v>
+      </c>
+      <c r="J2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="K3" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s">
         <v>108</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>103</v>
-      </c>
-      <c r="M5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
         <v>74</v>
       </c>
-      <c r="H7" t="s">
-        <v>88</v>
-      </c>
       <c r="I7" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>98</v>
+      </c>
+      <c r="K12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>84</v>
+      </c>
+      <c r="K13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="L14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="J15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>84</v>
+      </c>
+      <c r="L15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="K17" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="L17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" t="s">
-        <v>103</v>
-      </c>
-      <c r="M18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="J19" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="K19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>113</v>
+      </c>
+      <c r="L19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" t="s">
+        <v>84</v>
+      </c>
+      <c r="N19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="I21" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="J21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K21" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>84</v>
+      </c>
+      <c r="M21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" t="s">
         <v>75</v>
       </c>
-      <c r="I23" t="s">
-        <v>92</v>
-      </c>
       <c r="J23" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K23" t="s">
-        <v>103</v>
+        <v>84</v>
+      </c>
+      <c r="L23" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
